--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\lucky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3E6B0-EB5A-44D2-A8C1-F39BF3C5AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBC4A94-BCCC-4F07-8589-2B6A97604925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Név</t>
   </si>
@@ -63,12 +62,21 @@
   </si>
   <si>
     <t>Rövid Leírás</t>
+  </si>
+  <si>
+    <t>kávéoldal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kezdetleges</t>
+  </si>
+  <si>
+    <t>elkezdtem a kávéoldalt, a háttérkép jó, a többin még dolgozom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,10 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -435,24 +444,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3AD406-0FFB-4D93-A799-CA719214E946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,19 +481,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44957.729166666664</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44957.791666666664</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D3E6B0-EB5A-44D2-A8C1-F39BF3C5AE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39202DC1-6D78-4B91-94B4-D50574B7E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FBC4A94-BCCC-4F07-8589-2B6A97604925}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Név</t>
   </si>
@@ -63,6 +52,33 @@
   </si>
   <si>
     <t>Rövid Leírás</t>
+  </si>
+  <si>
+    <t>PPT képek</t>
+  </si>
+  <si>
+    <t>Kávé oldala</t>
+  </si>
+  <si>
+    <t>PPT előadása</t>
+  </si>
+  <si>
+    <t>PPT Szerkesztés</t>
+  </si>
+  <si>
+    <t>PPT szerkzeése, formázása</t>
+  </si>
+  <si>
+    <t>Kávé oldalának elkezdése.</t>
+  </si>
+  <si>
+    <t>Weboldal képterveinek szerkesztése.</t>
+  </si>
+  <si>
+    <t>Reméljük ő fogja előadni.</t>
+  </si>
+  <si>
+    <t>Kész</t>
   </si>
 </sst>
 </file>
@@ -118,10 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -435,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3AD406-0FFB-4D93-A799-CA719214E946}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +467,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -476,15 +494,68 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44959</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44959</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44957.729166666664</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44957.791666666664</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\lucky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39202DC1-6D78-4B91-94B4-D50574B7E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Név</t>
   </si>
@@ -54,37 +64,25 @@
     <t>Rövid Leírás</t>
   </si>
   <si>
-    <t>PPT képek</t>
-  </si>
-  <si>
-    <t>Kávé oldala</t>
-  </si>
-  <si>
-    <t>PPT előadása</t>
-  </si>
-  <si>
-    <t>PPT Szerkesztés</t>
-  </si>
-  <si>
-    <t>PPT szerkzeése, formázása</t>
-  </si>
-  <si>
-    <t>Kávé oldalának elkezdése.</t>
-  </si>
-  <si>
-    <t>Weboldal képterveinek szerkesztése.</t>
-  </si>
-  <si>
-    <t>Reméljük ő fogja előadni.</t>
-  </si>
-  <si>
-    <t>Kész</t>
+    <t>kávéoldal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kezdetleges</t>
+  </si>
+  <si>
+    <t>elkezdtem a kávéoldalt, a háttérkép jó, a többin még dolgozom</t>
+  </si>
+  <si>
+    <t>folyamatban</t>
+  </si>
+  <si>
+    <t>képek szépítése css-sel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,12 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -453,24 +450,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,72 +487,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
-        <v>44958</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44959</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="C4" s="3">
+        <v>44957.729166666664</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44957.791666666664</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44962.829861111109</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44962.871527777781</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
-        <v>44958</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44959</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44957.729166666664</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44957.791666666664</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Név</t>
   </si>
@@ -64,13 +53,34 @@
     <t>Rövid Leírás</t>
   </si>
   <si>
+    <t>PPT képek</t>
+  </si>
+  <si>
+    <t>Kávé oldala</t>
+  </si>
+  <si>
+    <t>PPT előadása</t>
+  </si>
+  <si>
+    <t>PPT Szerkesztés</t>
+  </si>
+  <si>
+    <t>PPT szerkzeése, formázása</t>
+  </si>
+  <si>
+    <t>Kávé oldalának elkezdése.</t>
+  </si>
+  <si>
+    <t>Weboldal képterveinek szerkesztése.</t>
+  </si>
+  <si>
+    <t>Reméljük ő fogja előadni.</t>
+  </si>
+  <si>
+    <t>Kész</t>
+  </si>
+  <si>
     <t>kávéoldal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kezdetleges</t>
-  </si>
-  <si>
-    <t>elkezdtem a kávéoldalt, a háttérkép jó, a többin még dolgozom</t>
   </si>
   <si>
     <t>folyamatban</t>
@@ -132,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -451,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,50 +502,88 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44959</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44958</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44959</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>44957.729166666664</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D6" s="3">
         <v>44957.791666666664</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
         <v>44962.829861111109</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D8" s="3">
         <v>44962.871527777781</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\lucky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F7AB8-3232-4BAA-A2A7-4688EBAEAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Név</t>
   </si>
@@ -87,12 +88,36 @@
   </si>
   <si>
     <t>képek szépítése css-sel</t>
+  </si>
+  <si>
+    <t>Sütik oldala</t>
+  </si>
+  <si>
+    <t>A sütik oldalának alapja.</t>
+  </si>
+  <si>
+    <t>Főoldal</t>
+  </si>
+  <si>
+    <t>A főoldal sablonos elkészítése.</t>
+  </si>
+  <si>
+    <t>PPT formázása, print screenek beillesztése.</t>
+  </si>
+  <si>
+    <t>PPT formázása.</t>
+  </si>
+  <si>
+    <t>2023.02.09 19:30</t>
+  </si>
+  <si>
+    <t>2023.02.09 19:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -138,16 +163,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -461,131 +658,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>44958</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>44959</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17">
+        <v>44966.729166666664</v>
+      </c>
+      <c r="D3" s="17">
+        <v>44966.770833333336</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C11" s="6">
         <v>44958</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D11" s="6">
         <v>44959</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44966.729166666664</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44966.770833333336</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44966.791666666664</v>
+      </c>
+      <c r="D13" s="17">
+        <v>44966.8125</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C20" s="14">
         <v>44957.729166666664</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D20" s="14">
         <v>44957.791666666664</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C21" s="15">
+        <v>44960</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C22" s="17">
         <v>44962.829861111109</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D22" s="17">
         <v>44962.871527777781</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F7AB8-3232-4BAA-A2A7-4688EBAEAC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE2FF6-ABC5-420B-A052-D204F0FD0359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -345,6 +354,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -662,12 +672,12 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
@@ -695,315 +705,315 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>44958</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>44959</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>44966.729166666664</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>44966.770833333336</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44959</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>44966.729166666664</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>44966.770833333336</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>44966.791666666664</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>44966.8125</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>44957.729166666664</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>44957.791666666664</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>44960</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>44962.829861111109</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>44962.871527777781</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE2FF6-ABC5-420B-A052-D204F0FD0359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B001FF-D91D-4980-AC57-F873891A5263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Név</t>
   </si>
@@ -84,9 +84,6 @@
     <t>kávéoldal</t>
   </si>
   <si>
-    <t>folyamatban</t>
-  </si>
-  <si>
     <t>képek szépítése css-sel</t>
   </si>
   <si>
@@ -112,6 +109,36 @@
   </si>
   <si>
     <t>2023.02.09 19:00</t>
+  </si>
+  <si>
+    <t>PPT elődása</t>
+  </si>
+  <si>
+    <t>Folyamatban</t>
+  </si>
+  <si>
+    <t>Szövegtípus kiválasztása, Szövegszín, linkek létrehozása(még nem működnek)</t>
+  </si>
+  <si>
+    <t>Heti beszámoló szerkesztése.</t>
+  </si>
+  <si>
+    <t>Github rendezése</t>
+  </si>
+  <si>
+    <t>Github repo rendezése.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Főoldal </t>
+  </si>
+  <si>
+    <t>Amit terveztem, az kész lett.(Háttér,szövegszerkesztés,elérhetőségek.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT Szerkesztés </t>
+  </si>
+  <si>
+    <t>Segítség a PPT Szerkesztésben.</t>
   </si>
 </sst>
 </file>
@@ -672,17 +699,17 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -728,7 +755,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="16">
         <v>44966.729166666664</v>
@@ -740,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,41 +776,69 @@
         <v>12</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44973.75</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44973.833333333336</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44973.854166666664</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16">
+        <v>44973.729166666664</v>
+      </c>
+      <c r="D7" s="16">
+        <v>44973.736111111109</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -832,7 +887,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="16">
         <v>44966.729166666664</v>
@@ -844,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,24 +917,44 @@
         <v>17</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="16">
+        <v>44973.75</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44973.791666666664</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16">
+        <v>44973.833333333336</v>
+      </c>
+      <c r="D15" s="16">
+        <v>44973.770833333336</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -961,19 +1036,29 @@
         <v>44962.871527777781</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14">
+        <v>44967</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44967</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B001FF-D91D-4980-AC57-F873891A5263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Név</t>
   </si>
@@ -139,12 +138,18 @@
   </si>
   <si>
     <t>Segítség a PPT Szerkesztésben.</t>
+  </si>
+  <si>
+    <t>folyamatban</t>
+  </si>
+  <si>
+    <t>az oldal egységesítése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,24 +700,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -752,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -770,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -788,7 +793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -804,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -822,7 +827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>32</v>
@@ -840,7 +845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -848,7 +853,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -856,7 +861,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -864,7 +869,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
@@ -884,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -902,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -920,7 +925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>34</v>
@@ -938,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>36</v>
@@ -956,7 +961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -964,7 +969,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -972,7 +977,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -980,7 +985,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -988,7 +993,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -1024,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="8" t="s">
         <v>18</v>
@@ -1042,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>11</v>
@@ -1060,15 +1065,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="16">
+        <v>44986.862500000003</v>
+      </c>
+      <c r="D24" s="16">
+        <v>44986.930555555555</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1076,7 +1091,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1084,7 +1099,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1092,7 +1107,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1100,7 +1115,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB809A-59DE-4DFC-9F95-F3CFD068FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Név</t>
   </si>
@@ -144,12 +145,18 @@
   </si>
   <si>
     <t>az oldal egységesítése</t>
+  </si>
+  <si>
+    <t>A sütik "dobozának" animáció elkészítése.</t>
+  </si>
+  <si>
+    <t>Sütik Tartalmának feltöltése, Címsor szerkesztése.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,24 +707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="74.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -757,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -775,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -793,7 +800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -801,15 +808,17 @@
       <c r="C5" s="16">
         <v>44973.75</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="16">
+        <v>44975.708333333336</v>
+      </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -827,7 +836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>32</v>
@@ -845,277 +854,367 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="16">
+        <v>44979.791666666664</v>
+      </c>
+      <c r="D8" s="16">
+        <v>44980.833333333336</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>44987.541666666664</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>44958</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D14" s="5">
         <v>44959</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="16">
-        <v>44966.729166666664</v>
-      </c>
-      <c r="D12" s="16">
-        <v>44966.770833333336</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16">
-        <v>44966.791666666664</v>
-      </c>
-      <c r="D13" s="16">
-        <v>44966.8125</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16">
-        <v>44973.75</v>
-      </c>
-      <c r="D14" s="16">
-        <v>44973.791666666664</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16">
+        <v>44966.729166666664</v>
+      </c>
+      <c r="D15" s="16">
+        <v>44966.770833333336</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16">
+        <v>44966.791666666664</v>
+      </c>
+      <c r="D16" s="16">
+        <v>44966.8125</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="16">
+        <v>44973.75</v>
+      </c>
+      <c r="D17" s="16">
+        <v>44973.791666666664</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C18" s="16">
         <v>44973.833333333336</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D18" s="16">
         <v>44973.770833333336</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C26" s="13">
         <v>44957.729166666664</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D26" s="13">
         <v>44957.791666666664</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C27" s="14">
         <v>44960</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="8" t="s">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C28" s="16">
         <v>44962.829861111109</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D28" s="16">
         <v>44962.871527777781</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="E28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C29" s="14">
         <v>44967</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D29" s="14">
         <v>44967</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C30" s="16">
         <v>44986.862500000003</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D30" s="16">
         <v>44986.930555555555</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB809A-59DE-4DFC-9F95-F3CFD068FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC046255-405D-48AA-83C0-510F7E622994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Név</t>
   </si>
@@ -114,9 +114,6 @@
     <t>PPT elődása</t>
   </si>
   <si>
-    <t>Folyamatban</t>
-  </si>
-  <si>
     <t>Szövegtípus kiválasztása, Szövegszín, linkek létrehozása(még nem működnek)</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Sütik Tartalmának feltöltése, Címsor szerkesztése.</t>
+  </si>
+  <si>
+    <t>kész</t>
+  </si>
+  <si>
+    <t>Főoldal jelenlegi állapotban való elkészítése:elérhetőségek,gombok,nagyjából reszponzív</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +724,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="74.28515625" customWidth="1"/>
+    <col min="6" max="6" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -815,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,13 +836,13 @@
         <v>17</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="16">
         <v>44973.729166666664</v>
@@ -851,7 +854,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,12 +883,14 @@
       <c r="C9" s="14">
         <v>44987.541666666664</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="16">
+        <v>44987.75</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,7 +984,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="16">
         <v>44973.75</v>
@@ -991,13 +996,13 @@
         <v>17</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="16">
         <v>44973.833333333336</v>
@@ -1009,16 +1014,26 @@
         <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="16">
+        <v>44979.583333333336</v>
+      </c>
+      <c r="D19" s="16">
+        <v>44979.666666666664</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -1152,10 +1167,10 @@
         <v>44986.930555555555</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Your-Computer\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC046255-405D-48AA-83C0-510F7E622994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="3516" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Név</t>
   </si>
@@ -154,12 +153,15 @@
   </si>
   <si>
     <t>Főoldal jelenlegi állapotban való elkészítése:elérhetőségek,gombok,nagyjából reszponzív</t>
+  </si>
+  <si>
+    <t>a navbar egységesítése, oldalak hasonló felépítése, szöveges tartalom kitöltése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,24 +712,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -767,7 +769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -785,7 +787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -803,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -821,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -839,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -857,7 +859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -875,7 +877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>20</v>
@@ -893,7 +895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -901,7 +903,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -909,7 +911,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -917,7 +919,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -925,7 +927,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
@@ -945,7 +947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -963,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -981,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>33</v>
@@ -999,7 +1001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>35</v>
@@ -1017,7 +1019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>22</v>
@@ -1035,7 +1037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1043,7 +1045,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1051,7 +1053,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1059,7 +1061,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1067,7 +1069,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1075,7 +1077,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1083,7 +1085,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>11</v>
@@ -1119,7 +1121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="8" t="s">
         <v>18</v>
@@ -1137,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -1155,7 +1157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
         <v>18</v>
@@ -1173,15 +1175,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="16">
+        <v>44989.729166666664</v>
+      </c>
+      <c r="D31" s="16">
+        <v>44989.833333333336</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1189,7 +1201,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1197,7 +1209,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1205,7 +1217,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1213,7 +1225,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1221,7 +1233,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1229,7 +1241,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC8086-A64C-420B-B066-94C1F6E6CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3516" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Név</t>
   </si>
@@ -156,12 +157,24 @@
   </si>
   <si>
     <t>a navbar egységesítése, oldalak hasonló felépítése, szöveges tartalom kitöltése</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sütik oldal </t>
+  </si>
+  <si>
+    <t>Folyamatban</t>
+  </si>
+  <si>
+    <t>Navbar méretek tökéletesítés, reszponzív utánanézés, mert elfelejtettem hogy kell :l</t>
+  </si>
+  <si>
+    <t>Elérhetőségek szerkesztése, apróságok.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,24 +725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
@@ -769,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -787,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -805,7 +818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>20</v>
@@ -823,7 +836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -841,7 +854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -859,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>20</v>
@@ -877,7 +890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>20</v>
@@ -895,15 +908,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44994.75</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -911,7 +932,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -919,7 +940,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -927,7 +948,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
@@ -947,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -965,7 +986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -983,7 +1004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>33</v>
@@ -1001,7 +1022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>35</v>
@@ -1019,7 +1040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>22</v>
@@ -1037,15 +1058,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="16">
+        <v>44994.708333333336</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1053,7 +1082,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1061,7 +1090,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1069,7 +1098,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1077,7 +1106,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1085,7 +1114,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>11</v>
@@ -1121,7 +1150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="8" t="s">
         <v>18</v>
@@ -1139,7 +1168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
         <v>11</v>
@@ -1157,7 +1186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
         <v>18</v>
@@ -1175,7 +1204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
         <v>18</v>
@@ -1193,7 +1222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1201,7 +1230,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1209,7 +1238,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1217,7 +1246,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1225,7 +1254,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1233,7 +1262,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1241,7 +1270,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFC8086-A64C-420B-B066-94C1F6E6CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Név</t>
   </si>
@@ -169,12 +168,15 @@
   </si>
   <si>
     <t>Elérhetőségek szerkesztése, apróságok.</t>
+  </si>
+  <si>
+    <t>a kávéoldalt reszponzívvá tettem.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,11 +727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1226,21 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="16">
+        <v>45000.791666666664</v>
+      </c>
+      <c r="D32" s="16">
+        <v>45000.84375</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Név</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>a kávéoldalt reszponzívvá tettem.</t>
+  </si>
+  <si>
+    <t>menü reszponzívvá tétele</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,11 +1247,21 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="16">
+        <v>45001.729166666664</v>
+      </c>
+      <c r="D33" s="16">
+        <v>45001.756944444445</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balazs\OneDrive\Asztali gép\kavezo\Lucky-Kavezo-Project-PKL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F86AA-E25A-446B-85FD-4D79B05A037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Név</t>
   </si>
@@ -174,12 +175,21 @@
   </si>
   <si>
     <t>menü reszponzívvá tétele</t>
+  </si>
+  <si>
+    <t>Reszponzív</t>
+  </si>
+  <si>
+    <t>Reszponzív cucc, telefonon lévő menü létrehozása</t>
+  </si>
+  <si>
+    <t>Reszponzív főoldal elkezdése</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,11 +740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,9 +931,11 @@
       <c r="C10" s="16">
         <v>44994.75</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="16">
+        <v>44995.625</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>46</v>
@@ -931,11 +943,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45001.708333333336</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -1081,11 +1101,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45001.75</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F86AA-E25A-446B-85FD-4D79B05A037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76C90B-C95B-4F23-86CF-DBF4A8A3A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,9 +949,11 @@
       <c r="C11" s="16">
         <v>45001.708333333336</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="16">
+        <v>45004.833333333336</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>51</v>

--- a/Tablazat.xlsx
+++ b/Tablazat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomi\Documents\GitHub\Lucky-Kavezo-Project-PKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76C90B-C95B-4F23-86CF-DBF4A8A3A2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A829FE5-390E-4924-92C6-F6178FE87E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Név</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Segítség a PPT Szerkesztésben.</t>
   </si>
   <si>
-    <t>folyamatban</t>
-  </si>
-  <si>
     <t>az oldal egységesítése</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sütik oldal </t>
-  </si>
-  <si>
-    <t>Folyamatban</t>
   </si>
   <si>
     <t>Navbar méretek tökéletesítés, reszponzív utánanézés, mert elfelejtettem hogy kell :l</t>
@@ -744,7 +738,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,13 +914,13 @@
         <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="16">
         <v>44994.75</v>
@@ -938,13 +932,13 @@
         <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="16">
         <v>45001.708333333336</v>
@@ -956,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,10 +1073,10 @@
         <v>44979.666666666664</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,28 +1087,32 @@
       <c r="C20" s="16">
         <v>44994.708333333336</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="16">
+        <v>45008.791666666664</v>
+      </c>
       <c r="E20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16">
         <v>45001.75</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="16">
+        <v>45008.791666666664</v>
+      </c>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,10 +1231,10 @@
         <v>44986.930555555555</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,10 +1249,10 @@
         <v>44989.833333333336</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1267,10 @@
         <v>45000.84375</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,10 +1285,10 @@
         <v>45001.756944444445</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
